--- a/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C927D02F-BC42-4949-980D-8B932207FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2EB5DFD-9230-4555-9740-FD7DE685DEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B452552D-8284-4130-BD6A-F3AA1E95EB1E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21E4ABD7-EBDE-4A30-84E5-2AE1D16E41E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="641">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,10 +95,10 @@
     <t>5,83%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,10 +107,10 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>14,63%</t>
@@ -125,10 +125,10 @@
     <t>17,18%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -137,10 +137,10 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>73,23%</t>
@@ -155,97 +155,97 @@
     <t>77,0%</t>
   </si>
   <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
     <t>64,49%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>76,3%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -254,1702 +254,1714 @@
     <t>7,42%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>4,11%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>22,45%</t>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA2A512-7590-4A0D-955F-E44E938F9B08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76DC1E9-E62B-47B7-B2EA-7BC35A553F1E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2820,7 +2832,7 @@
         <v>154</v>
       </c>
       <c r="N10" s="7">
-        <v>150804</v>
+        <v>150805</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2871,7 +2883,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3121,10 +3133,10 @@
         <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3133,13 +3145,13 @@
         <v>9463</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3166,13 @@
         <v>15007</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3169,13 +3181,13 @@
         <v>30830</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3184,13 +3196,13 @@
         <v>45836</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3217,13 @@
         <v>86446</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -3220,13 +3232,13 @@
         <v>98476</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>188</v>
@@ -3235,13 +3247,13 @@
         <v>184922</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3309,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3309,13 +3321,13 @@
         <v>6697</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -3324,13 +3336,13 @@
         <v>19425</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3339,13 +3351,13 @@
         <v>26123</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3372,13 @@
         <v>17847</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -3375,13 +3387,13 @@
         <v>46879</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -3390,13 +3402,13 @@
         <v>64727</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3423,13 @@
         <v>112672</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -3426,13 +3438,13 @@
         <v>142473</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
@@ -3441,7 +3453,7 @@
         <v>255146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>149</v>
@@ -3730,7 +3742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E164FF-3B89-4D3C-B1C8-EFCFF01745D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6D7377-89B4-4D5A-8926-F9BA12A59F02}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4066,7 +4078,7 @@
         <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4075,13 +4087,13 @@
         <v>17921</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -4090,13 +4102,13 @@
         <v>23256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4123,13 @@
         <v>20275</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -4126,13 +4138,13 @@
         <v>25602</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -4141,13 +4153,13 @@
         <v>45877</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4174,13 @@
         <v>92741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4177,13 +4189,13 @@
         <v>98068</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -4192,13 +4204,13 @@
         <v>190809</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4278,13 @@
         <v>17335</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -4281,13 +4293,13 @@
         <v>30767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -4296,13 +4308,13 @@
         <v>48102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4329,13 @@
         <v>26290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4332,13 +4344,13 @@
         <v>48013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -4347,13 +4359,13 @@
         <v>74304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4380,13 @@
         <v>111253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -4383,13 +4395,13 @@
         <v>112640</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>206</v>
@@ -4398,13 +4410,13 @@
         <v>223893</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4484,13 @@
         <v>12927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4487,13 +4499,13 @@
         <v>25697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4502,13 +4514,13 @@
         <v>38624</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4535,13 @@
         <v>15013</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4538,13 +4550,13 @@
         <v>21482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4553,13 +4565,13 @@
         <v>36495</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4586,13 @@
         <v>75658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>86</v>
@@ -4589,13 +4601,13 @@
         <v>93840</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>153</v>
@@ -4604,13 +4616,13 @@
         <v>169498</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,7 +4678,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4678,13 +4690,13 @@
         <v>18369</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4693,13 +4705,13 @@
         <v>17746</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -4708,13 +4720,13 @@
         <v>36114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4741,13 @@
         <v>17605</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -4744,13 +4756,13 @@
         <v>53502</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M21" s="7">
         <v>66</v>
@@ -4759,13 +4771,13 @@
         <v>71107</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4792,13 @@
         <v>125640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -4795,13 +4807,13 @@
         <v>172503</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
@@ -4810,13 +4822,13 @@
         <v>298142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4896,13 @@
         <v>54930</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H24" s="7">
         <v>86</v>
@@ -4899,13 +4911,13 @@
         <v>95607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>135</v>
@@ -4914,13 +4926,13 @@
         <v>150537</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>50</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4947,13 @@
         <v>83709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -4950,13 +4962,13 @@
         <v>152810</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M25" s="7">
         <v>216</v>
@@ -4965,13 +4977,13 @@
         <v>236520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4998,13 @@
         <v>420997</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7">
         <v>465</v>
@@ -5001,13 +5013,13 @@
         <v>494558</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>847</v>
@@ -5016,13 +5028,13 @@
         <v>915555</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04C11C3-F861-4987-BEDD-C9AC99F406DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1F21C7-4FB7-4C58-925E-4FA3409ECDB6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5116,7 +5128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5223,13 +5235,13 @@
         <v>3562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5238,13 +5250,13 @@
         <v>4360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5253,13 +5265,13 @@
         <v>7922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5286,13 @@
         <v>3514</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5289,13 +5301,13 @@
         <v>4875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5304,13 +5316,13 @@
         <v>8390</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5337,13 @@
         <v>14612</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5340,13 +5352,13 @@
         <v>14203</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -5355,13 +5367,13 @@
         <v>28815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5441,13 @@
         <v>12843</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5444,13 +5456,13 @@
         <v>10432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5459,13 +5471,13 @@
         <v>23276</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5492,13 @@
         <v>7858</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -5495,13 +5507,13 @@
         <v>28999</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -5510,13 +5522,13 @@
         <v>36857</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5543,13 @@
         <v>94344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -5546,13 +5558,13 @@
         <v>110520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -5564,10 +5576,10 @@
         <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5647,13 @@
         <v>12113</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>192</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5650,13 +5662,13 @@
         <v>9694</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -5665,13 +5677,13 @@
         <v>21807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5698,13 @@
         <v>25370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -5701,13 +5713,13 @@
         <v>58008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -5716,13 +5728,13 @@
         <v>83378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5749,13 @@
         <v>127458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -5752,13 +5764,13 @@
         <v>151461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -5767,13 +5779,13 @@
         <v>278919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5853,13 @@
         <v>8707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5856,13 +5868,13 @@
         <v>11322</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5871,13 +5883,13 @@
         <v>20029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5904,13 @@
         <v>12250</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -5907,13 +5919,13 @@
         <v>30111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -5922,13 +5934,13 @@
         <v>42360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5955,13 @@
         <v>94078</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -5958,13 +5970,13 @@
         <v>101163</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>177</v>
@@ -5973,13 +5985,13 @@
         <v>195242</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,7 +6047,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6047,13 +6059,13 @@
         <v>8656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6062,13 +6074,13 @@
         <v>14297</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6077,13 +6089,13 @@
         <v>22953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6110,13 @@
         <v>18350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -6113,13 +6125,13 @@
         <v>61388</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>453</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -6128,13 +6140,13 @@
         <v>79738</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6161,13 @@
         <v>147612</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -6164,13 +6176,13 @@
         <v>167096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M22" s="7">
         <v>301</v>
@@ -6179,13 +6191,13 @@
         <v>314709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6265,13 @@
         <v>45882</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H24" s="7">
         <v>39</v>
@@ -6268,13 +6280,13 @@
         <v>50105</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M24" s="7">
         <v>90</v>
@@ -6283,13 +6295,13 @@
         <v>95987</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>469</v>
+        <v>49</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6316,13 @@
         <v>67342</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -6319,13 +6331,13 @@
         <v>183381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M25" s="7">
         <v>221</v>
@@ -6334,13 +6346,13 @@
         <v>250723</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6367,13 @@
         <v>478104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>480</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H26" s="7">
         <v>470</v>
@@ -6370,13 +6382,13 @@
         <v>544444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
         <v>971</v>
@@ -6385,13 +6397,13 @@
         <v>1022548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692F684B-65A0-4157-82C7-D83B734E87B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59050C49-15FF-4A79-A005-0C443E4C0036}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6485,7 +6497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6592,13 +6604,13 @@
         <v>2118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6607,13 +6619,13 @@
         <v>7402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -6622,13 +6634,13 @@
         <v>9520</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,10 +6655,10 @@
         <v>8685</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>498</v>
@@ -6658,13 +6670,13 @@
         <v>10633</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>499</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -6673,13 +6685,13 @@
         <v>19318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6706,13 @@
         <v>18861</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H6" s="7">
         <v>67</v>
@@ -6709,13 +6721,13 @@
         <v>27387</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M6" s="7">
         <v>96</v>
@@ -6724,13 +6736,13 @@
         <v>46248</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,13 +6810,13 @@
         <v>15104</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -6813,13 +6825,13 @@
         <v>21142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M8" s="7">
         <v>76</v>
@@ -6828,13 +6840,13 @@
         <v>36247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,13 +6861,13 @@
         <v>20725</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>262</v>
+        <v>524</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -6864,13 +6876,13 @@
         <v>33511</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M9" s="7">
         <v>109</v>
@@ -6879,13 +6891,13 @@
         <v>54236</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,13 +6912,13 @@
         <v>89147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>530</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H10" s="7">
         <v>212</v>
@@ -6915,13 +6927,13 @@
         <v>92566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M10" s="7">
         <v>355</v>
@@ -6930,13 +6942,13 @@
         <v>181713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,13 +7016,13 @@
         <v>12259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>206</v>
+        <v>541</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -7019,13 +7031,13 @@
         <v>29776</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>544</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -7034,13 +7046,13 @@
         <v>42035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7067,13 @@
         <v>23809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -7070,13 +7082,13 @@
         <v>56188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -7085,13 +7097,13 @@
         <v>79997</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7118,13 @@
         <v>137778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -7121,13 +7133,13 @@
         <v>156931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M14" s="7">
         <v>487</v>
@@ -7136,13 +7148,13 @@
         <v>294708</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>561</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,10 +7225,10 @@
         <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -7225,13 +7237,13 @@
         <v>18004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>570</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -7240,13 +7252,13 @@
         <v>24690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7273,13 @@
         <v>10880</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -7276,13 +7288,13 @@
         <v>37484</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -7291,13 +7303,13 @@
         <v>48364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>576</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,13 +7324,13 @@
         <v>130623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>406</v>
+        <v>582</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="H18" s="7">
         <v>197</v>
@@ -7327,13 +7339,13 @@
         <v>225626</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="M18" s="7">
         <v>365</v>
@@ -7342,13 +7354,13 @@
         <v>356251</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,7 +7416,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7416,13 +7428,13 @@
         <v>15334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -7431,13 +7443,13 @@
         <v>33533</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -7446,13 +7458,13 @@
         <v>48867</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>591</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7479,13 @@
         <v>25624</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H21" s="7">
         <v>112</v>
@@ -7482,13 +7494,13 @@
         <v>68441</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -7497,13 +7509,13 @@
         <v>94065</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7530,13 @@
         <v>177838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
@@ -7533,13 +7545,13 @@
         <v>206968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="M22" s="7">
         <v>622</v>
@@ -7548,13 +7560,13 @@
         <v>384806</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7634,13 @@
         <v>51502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H24" s="7">
         <v>199</v>
@@ -7637,13 +7649,13 @@
         <v>109857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M24" s="7">
         <v>285</v>
@@ -7652,13 +7664,13 @@
         <v>161359</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>618</v>
+        <v>210</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>236</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +7685,13 @@
         <v>89723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H25" s="7">
         <v>383</v>
@@ -7688,13 +7700,13 @@
         <v>206256</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M25" s="7">
         <v>521</v>
@@ -7703,13 +7715,13 @@
         <v>295979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7736,13 @@
         <v>554248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H26" s="7">
         <v>1124</v>
@@ -7739,13 +7751,13 @@
         <v>709478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="M26" s="7">
         <v>1925</v>
@@ -7754,13 +7766,13 @@
         <v>1263725</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2EB5DFD-9230-4555-9740-FD7DE685DEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D10EA8-F062-455A-ADF6-885FF314EA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21E4ABD7-EBDE-4A30-84E5-2AE1D16E41E2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{321412D8-D4FD-4464-9883-9535FFC4AC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="631">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No puede</t>
@@ -86,19 +86,19 @@
     <t>12,14%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,1804 +107,1774 @@
     <t>19,53%</t>
   </si>
   <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>64,49%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>7,43%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
   </si>
   <si>
     <t>10,76%</t>
@@ -2373,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76DC1E9-E62B-47B7-B2EA-7BC35A553F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637F5962-2249-46D4-B4D8-EF37F288FB51}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2739,7 +2709,7 @@
         <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2724,13 @@
         <v>17465</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -2769,13 +2739,13 @@
         <v>26568</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -2784,13 +2754,13 @@
         <v>44033</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2775,13 @@
         <v>61781</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -2820,28 +2790,28 @@
         <v>89024</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
       </c>
       <c r="N10" s="7">
-        <v>150805</v>
+        <v>150804</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2853,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2897,7 +2867,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2909,13 +2879,13 @@
         <v>10822</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2924,13 +2894,13 @@
         <v>10418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -2939,13 +2909,13 @@
         <v>21239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2930,13 @@
         <v>28753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -2975,13 +2945,13 @@
         <v>50117</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -2990,13 +2960,13 @@
         <v>78870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2981,13 @@
         <v>106315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -3026,13 +2996,13 @@
         <v>122145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>222</v>
@@ -3041,13 +3011,13 @@
         <v>228459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3085,13 @@
         <v>2918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3130,13 +3100,13 @@
         <v>6545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3145,13 +3115,13 @@
         <v>9463</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3136,13 @@
         <v>15007</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3181,13 +3151,13 @@
         <v>30830</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3196,13 +3166,13 @@
         <v>45836</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3187,13 @@
         <v>86446</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -3232,13 +3202,13 @@
         <v>98476</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>188</v>
@@ -3247,13 +3217,13 @@
         <v>184922</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3279,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3321,13 +3291,13 @@
         <v>6697</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -3336,13 +3306,13 @@
         <v>19425</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3351,13 +3321,13 @@
         <v>26123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3342,13 @@
         <v>17847</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -3387,13 +3357,13 @@
         <v>46879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -3402,13 +3372,13 @@
         <v>64727</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3393,13 @@
         <v>112672</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -3438,13 +3408,13 @@
         <v>142473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
@@ -3453,13 +3423,13 @@
         <v>255146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3497,13 @@
         <v>29806</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -3542,13 +3512,13 @@
         <v>48960</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -3557,13 +3527,13 @@
         <v>78766</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3548,13 @@
         <v>84223</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -3593,13 +3563,13 @@
         <v>157952</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>234</v>
@@ -3608,13 +3578,13 @@
         <v>242175</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3599,13 @@
         <v>388438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>469</v>
@@ -3644,13 +3614,13 @@
         <v>469930</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>872</v>
@@ -3659,13 +3629,13 @@
         <v>858368</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,7 +3691,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6D7377-89B4-4D5A-8926-F9BA12A59F02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF81D0F-2DEF-4CD6-822B-B0BC29285072}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3759,7 +3729,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3866,13 +3836,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3881,13 +3851,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3896,13 +3866,13 @@
         <v>4441</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3887,13 @@
         <v>4526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3932,13 +3902,13 @@
         <v>4211</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -3947,13 +3917,13 @@
         <v>8737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3938,13 @@
         <v>15707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3983,13 +3953,13 @@
         <v>17507</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -3998,13 +3968,13 @@
         <v>33214</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4042,13 @@
         <v>5335</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4087,13 +4057,13 @@
         <v>17921</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -4102,13 +4072,13 @@
         <v>23256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4093,13 @@
         <v>20275</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -4138,13 +4108,13 @@
         <v>25602</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -4153,13 +4123,13 @@
         <v>45877</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4144,13 @@
         <v>92741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4189,13 +4159,13 @@
         <v>98068</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -4204,13 +4174,13 @@
         <v>190809</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4236,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4278,13 +4248,13 @@
         <v>17335</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -4293,13 +4263,13 @@
         <v>30767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -4308,13 +4278,13 @@
         <v>48102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4299,13 @@
         <v>26290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4344,13 +4314,13 @@
         <v>48013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -4359,13 +4329,13 @@
         <v>74304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4350,13 @@
         <v>111253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -4395,13 +4365,13 @@
         <v>112640</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>206</v>
@@ -4410,13 +4380,13 @@
         <v>223893</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,7 +4442,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4484,13 +4454,13 @@
         <v>12927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4499,13 +4469,13 @@
         <v>25697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4514,13 +4484,13 @@
         <v>38624</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4505,13 @@
         <v>15013</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4550,13 +4520,13 @@
         <v>21482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4565,13 +4535,13 @@
         <v>36495</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4556,13 @@
         <v>75658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H18" s="7">
         <v>86</v>
@@ -4601,13 +4571,13 @@
         <v>93840</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>153</v>
@@ -4616,13 +4586,13 @@
         <v>169498</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,7 +4648,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4690,13 +4660,13 @@
         <v>18369</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4705,13 +4675,13 @@
         <v>17746</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -4720,13 +4690,13 @@
         <v>36114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4711,13 @@
         <v>17605</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -4756,13 +4726,13 @@
         <v>53502</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M21" s="7">
         <v>66</v>
@@ -4771,13 +4741,13 @@
         <v>71107</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4762,13 @@
         <v>125640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -4807,13 +4777,13 @@
         <v>172503</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
@@ -4822,13 +4792,13 @@
         <v>298142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4866,13 @@
         <v>54930</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>86</v>
@@ -4911,13 +4881,13 @@
         <v>95607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>135</v>
@@ -4926,13 +4896,13 @@
         <v>150537</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4917,13 @@
         <v>83709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -4962,13 +4932,13 @@
         <v>152810</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>216</v>
@@ -4977,13 +4947,13 @@
         <v>236520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4968,13 @@
         <v>420997</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H26" s="7">
         <v>465</v>
@@ -5013,13 +4983,13 @@
         <v>494558</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>847</v>
@@ -5028,13 +4998,13 @@
         <v>915555</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,7 +5060,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1F21C7-4FB7-4C58-925E-4FA3409ECDB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92F044-E122-4C15-905D-FE96418D00B9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5128,7 +5098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5235,13 +5205,13 @@
         <v>3562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5250,13 +5220,13 @@
         <v>4360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5265,13 +5235,13 @@
         <v>7922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5256,13 @@
         <v>3514</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5301,13 +5271,13 @@
         <v>4875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5316,13 +5286,13 @@
         <v>8390</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5307,13 @@
         <v>14612</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5352,13 +5322,13 @@
         <v>14203</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -5367,13 +5337,13 @@
         <v>28815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5411,13 @@
         <v>12843</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5456,13 +5426,13 @@
         <v>10432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5471,13 +5441,13 @@
         <v>23276</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5462,13 @@
         <v>7858</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>366</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -5507,13 +5477,13 @@
         <v>28999</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -5522,13 +5492,13 @@
         <v>36857</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>381</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5513,13 @@
         <v>94344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -5558,28 +5528,28 @@
         <v>110520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
       </c>
       <c r="N10" s="7">
-        <v>204864</v>
+        <v>204865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5591,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5635,7 +5605,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5647,13 +5617,13 @@
         <v>12113</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5662,13 +5632,13 @@
         <v>9694</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -5677,13 +5647,13 @@
         <v>21807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5668,13 @@
         <v>25370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -5713,13 +5683,13 @@
         <v>58008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -5728,13 +5698,13 @@
         <v>83378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5719,13 @@
         <v>127458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -5764,13 +5734,13 @@
         <v>151461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -5779,13 +5749,13 @@
         <v>278919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,7 +5811,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5853,13 +5823,13 @@
         <v>8707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5868,13 +5838,13 @@
         <v>11322</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5883,13 +5853,13 @@
         <v>20029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>22</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5874,13 @@
         <v>12250</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -5919,13 +5889,13 @@
         <v>30111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -5934,13 +5904,13 @@
         <v>42360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5925,13 @@
         <v>94078</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -5970,13 +5940,13 @@
         <v>101163</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>177</v>
@@ -5985,13 +5955,13 @@
         <v>195242</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>438</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6017,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6059,13 +6029,13 @@
         <v>8656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6074,13 +6044,13 @@
         <v>14297</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6089,13 +6059,13 @@
         <v>22953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6080,13 @@
         <v>18350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -6125,13 +6095,13 @@
         <v>61388</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -6140,13 +6110,13 @@
         <v>79738</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6131,13 @@
         <v>147612</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -6176,13 +6146,13 @@
         <v>167096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>301</v>
@@ -6191,13 +6161,13 @@
         <v>314709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6235,13 @@
         <v>45882</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H24" s="7">
         <v>39</v>
@@ -6280,13 +6250,13 @@
         <v>50105</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>367</v>
+        <v>459</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>470</v>
+        <v>97</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="M24" s="7">
         <v>90</v>
@@ -6295,13 +6265,13 @@
         <v>95987</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>49</v>
+        <v>462</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6286,13 @@
         <v>67342</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -6331,13 +6301,13 @@
         <v>183381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>477</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M25" s="7">
         <v>221</v>
@@ -6346,13 +6316,13 @@
         <v>250723</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6337,13 @@
         <v>478104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7">
         <v>470</v>
@@ -6382,13 +6352,13 @@
         <v>544444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>385</v>
+        <v>476</v>
       </c>
       <c r="M26" s="7">
         <v>971</v>
@@ -6397,13 +6367,13 @@
         <v>1022548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,7 +6429,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6480,7 +6450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59050C49-15FF-4A79-A005-0C443E4C0036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B508A29-4FAD-4681-94B7-DE35C186E9B4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6497,7 +6467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6604,13 +6574,13 @@
         <v>2118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6619,13 +6589,13 @@
         <v>7402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>75</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -6634,13 +6604,13 @@
         <v>9520</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>496</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>246</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6625,13 @@
         <v>8685</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>297</v>
+        <v>490</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -6670,13 +6640,13 @@
         <v>10633</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -6685,13 +6655,13 @@
         <v>19318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6676,13 @@
         <v>18861</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H6" s="7">
         <v>67</v>
@@ -6721,13 +6691,13 @@
         <v>27387</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M6" s="7">
         <v>96</v>
@@ -6736,13 +6706,13 @@
         <v>46248</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>511</v>
+        <v>143</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6780,13 @@
         <v>15104</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -6825,13 +6795,13 @@
         <v>21142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>76</v>
@@ -6840,13 +6810,13 @@
         <v>36247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,13 +6831,13 @@
         <v>20725</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -6876,13 +6846,13 @@
         <v>33511</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M9" s="7">
         <v>109</v>
@@ -6891,13 +6861,13 @@
         <v>54236</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6882,13 @@
         <v>89147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>525</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>533</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>212</v>
@@ -6927,13 +6897,13 @@
         <v>92566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M10" s="7">
         <v>355</v>
@@ -6942,13 +6912,13 @@
         <v>181713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,7 +6974,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7016,13 +6986,13 @@
         <v>12259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -7031,13 +7001,13 @@
         <v>29776</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -7046,13 +7016,13 @@
         <v>42035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7037,13 @@
         <v>23809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -7082,13 +7052,13 @@
         <v>56188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -7097,13 +7067,13 @@
         <v>79997</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7088,13 @@
         <v>137778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -7133,13 +7103,13 @@
         <v>156931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M14" s="7">
         <v>487</v>
@@ -7148,13 +7118,13 @@
         <v>294708</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>564</v>
+        <v>454</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,7 +7180,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7222,13 +7192,13 @@
         <v>6687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -7237,13 +7207,13 @@
         <v>18004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -7252,13 +7222,13 @@
         <v>24690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7243,13 @@
         <v>10880</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -7288,13 +7258,13 @@
         <v>37484</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -7303,13 +7273,13 @@
         <v>48364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7294,13 @@
         <v>130623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H18" s="7">
         <v>197</v>
@@ -7339,13 +7309,13 @@
         <v>225626</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="M18" s="7">
         <v>365</v>
@@ -7354,13 +7324,13 @@
         <v>356251</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,7 +7386,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7428,13 +7398,13 @@
         <v>15334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -7443,13 +7413,13 @@
         <v>33533</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -7458,13 +7428,13 @@
         <v>48867</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7449,13 @@
         <v>25624</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H21" s="7">
         <v>112</v>
@@ -7494,13 +7464,13 @@
         <v>68441</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -7509,13 +7479,13 @@
         <v>94065</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7500,13 @@
         <v>177838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>607</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
@@ -7545,13 +7515,13 @@
         <v>206968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>622</v>
@@ -7560,13 +7530,13 @@
         <v>384806</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,13 +7604,13 @@
         <v>51502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>616</v>
+        <v>457</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="H24" s="7">
         <v>199</v>
@@ -7649,13 +7619,13 @@
         <v>109857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="M24" s="7">
         <v>285</v>
@@ -7664,13 +7634,13 @@
         <v>161359</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>210</v>
+        <v>611</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7655,13 @@
         <v>89723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="H25" s="7">
         <v>383</v>
@@ -7700,13 +7670,13 @@
         <v>206256</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="M25" s="7">
         <v>521</v>
@@ -7715,13 +7685,13 @@
         <v>295979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7706,13 @@
         <v>554248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="H26" s="7">
         <v>1124</v>
@@ -7751,13 +7721,13 @@
         <v>709478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="M26" s="7">
         <v>1925</v>
@@ -7766,13 +7736,13 @@
         <v>1263725</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,7 +7798,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D10EA8-F062-455A-ADF6-885FF314EA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E8910A-7712-439D-BAD6-DEE7230E2041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{321412D8-D4FD-4464-9883-9535FFC4AC6B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA88CCDC-AC43-451A-8628-C6F4F97B606E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="637">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,19 +86,19 @@
     <t>12,14%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,1831 +107,1849 @@
     <t>19,53%</t>
   </si>
   <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637F5962-2249-46D4-B4D8-EF37F288FB51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5452B3-DBF4-485B-A241-A224447AB025}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2709,7 +2727,7 @@
         <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2742,13 @@
         <v>17465</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -2739,13 +2757,13 @@
         <v>26568</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -2754,13 +2772,13 @@
         <v>44033</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2793,13 @@
         <v>61781</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -2790,13 +2808,13 @@
         <v>89024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -2805,13 +2823,13 @@
         <v>150804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2885,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2897,13 @@
         <v>10822</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2894,13 +2912,13 @@
         <v>10418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -2909,13 +2927,13 @@
         <v>21239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2948,13 @@
         <v>28753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -2945,13 +2963,13 @@
         <v>50117</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -2960,13 +2978,13 @@
         <v>78870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2999,13 @@
         <v>106315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -2996,13 +3014,13 @@
         <v>122145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>222</v>
@@ -3011,13 +3029,13 @@
         <v>228459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3085,13 +3103,13 @@
         <v>2918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3100,13 +3118,13 @@
         <v>6545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3115,13 +3133,13 @@
         <v>9463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3154,13 @@
         <v>15007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3151,13 +3169,13 @@
         <v>30830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3166,13 +3184,13 @@
         <v>45836</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3205,13 @@
         <v>86446</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -3202,13 +3220,13 @@
         <v>98476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>188</v>
@@ -3217,13 +3235,13 @@
         <v>184922</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,7 +3297,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3291,13 +3309,13 @@
         <v>6697</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -3306,13 +3324,13 @@
         <v>19425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3321,13 +3339,13 @@
         <v>26123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3360,13 @@
         <v>17847</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -3357,13 +3375,13 @@
         <v>46879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -3372,13 +3390,13 @@
         <v>64727</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3411,13 @@
         <v>112672</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -3408,13 +3426,13 @@
         <v>142473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
@@ -3423,13 +3441,13 @@
         <v>255146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3515,13 @@
         <v>29806</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -3512,13 +3530,13 @@
         <v>48960</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -3527,13 +3545,13 @@
         <v>78766</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3566,13 @@
         <v>84223</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -3563,13 +3581,13 @@
         <v>157952</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>234</v>
@@ -3578,13 +3596,13 @@
         <v>242175</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3617,13 @@
         <v>388438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>469</v>
@@ -3614,13 +3632,13 @@
         <v>469930</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>872</v>
@@ -3629,13 +3647,13 @@
         <v>858368</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,7 +3709,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF81D0F-2DEF-4CD6-822B-B0BC29285072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD322581-8E4E-4AD5-A32F-2C56A810BFD9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3729,7 +3747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3836,13 +3854,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3851,13 +3869,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3866,13 +3884,13 @@
         <v>4441</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3905,13 @@
         <v>4526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3902,13 +3920,13 @@
         <v>4211</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -3917,13 +3935,13 @@
         <v>8737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3956,13 @@
         <v>15707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3953,13 +3971,13 @@
         <v>17507</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -3968,13 +3986,13 @@
         <v>33214</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4060,13 @@
         <v>5335</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4057,13 +4075,13 @@
         <v>17921</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -4072,13 +4090,13 @@
         <v>23256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4111,13 @@
         <v>20275</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -4108,13 +4126,13 @@
         <v>25602</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -4123,13 +4141,13 @@
         <v>45877</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4162,13 @@
         <v>92741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4159,13 +4177,13 @@
         <v>98068</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -4174,13 +4192,13 @@
         <v>190809</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4254,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4248,13 +4266,13 @@
         <v>17335</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -4263,13 +4281,13 @@
         <v>30767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -4278,13 +4296,13 @@
         <v>48102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4317,13 @@
         <v>26290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4314,13 +4332,13 @@
         <v>48013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -4329,13 +4347,13 @@
         <v>74304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4368,13 @@
         <v>111253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -4365,13 +4383,13 @@
         <v>112640</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>206</v>
@@ -4380,13 +4398,13 @@
         <v>223893</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,7 +4460,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4454,13 +4472,13 @@
         <v>12927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4469,13 +4487,13 @@
         <v>25697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4484,13 +4502,13 @@
         <v>38624</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4523,13 @@
         <v>15013</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4520,13 +4538,13 @@
         <v>21482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4535,13 +4553,13 @@
         <v>36495</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4574,13 @@
         <v>75658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H18" s="7">
         <v>86</v>
@@ -4571,13 +4589,13 @@
         <v>93840</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>153</v>
@@ -4586,13 +4604,13 @@
         <v>169498</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4666,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4660,13 +4678,13 @@
         <v>18369</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4675,13 +4693,13 @@
         <v>17746</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -4690,13 +4708,13 @@
         <v>36114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4729,13 @@
         <v>17605</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -4726,13 +4744,13 @@
         <v>53502</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M21" s="7">
         <v>66</v>
@@ -4741,13 +4759,13 @@
         <v>71107</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4780,13 @@
         <v>125640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -4777,13 +4795,13 @@
         <v>172503</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
@@ -4792,13 +4810,13 @@
         <v>298142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4884,13 @@
         <v>54930</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>86</v>
@@ -4881,13 +4899,13 @@
         <v>95607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>135</v>
@@ -4896,13 +4914,13 @@
         <v>150537</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4935,13 @@
         <v>83709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -4932,13 +4950,13 @@
         <v>152810</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M25" s="7">
         <v>216</v>
@@ -4947,13 +4965,13 @@
         <v>236520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4986,13 @@
         <v>420997</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>465</v>
@@ -4983,13 +5001,13 @@
         <v>494558</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>847</v>
@@ -4998,13 +5016,13 @@
         <v>915555</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,7 +5078,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5081,7 +5099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92F044-E122-4C15-905D-FE96418D00B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DF15C5-350A-41AB-A555-C3921D93821F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5098,7 +5116,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5205,13 +5223,13 @@
         <v>3562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5220,13 +5238,13 @@
         <v>4360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5235,13 +5253,13 @@
         <v>7922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5274,13 @@
         <v>3514</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5271,13 +5289,13 @@
         <v>4875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5286,13 +5304,13 @@
         <v>8390</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5325,13 @@
         <v>14612</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5322,13 +5340,13 @@
         <v>14203</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -5337,13 +5355,13 @@
         <v>28815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5429,13 @@
         <v>12843</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5426,13 +5444,13 @@
         <v>10432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5441,13 +5459,13 @@
         <v>23276</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5480,13 @@
         <v>7858</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -5477,13 +5495,13 @@
         <v>28999</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -5492,13 +5510,13 @@
         <v>36857</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5531,13 @@
         <v>94344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -5528,28 +5546,28 @@
         <v>110520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
       </c>
       <c r="N10" s="7">
-        <v>204865</v>
+        <v>204864</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5609,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5605,7 +5623,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5617,13 +5635,13 @@
         <v>12113</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>380</v>
+        <v>192</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5632,13 +5650,13 @@
         <v>9694</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -5647,13 +5665,13 @@
         <v>21807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5686,13 @@
         <v>25370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -5683,13 +5701,13 @@
         <v>58008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -5698,13 +5716,13 @@
         <v>83378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5737,13 @@
         <v>127458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -5734,13 +5752,13 @@
         <v>151461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -5749,13 +5767,13 @@
         <v>278919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,7 +5829,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5823,13 +5841,13 @@
         <v>8707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5838,13 +5856,13 @@
         <v>11322</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5853,13 +5871,13 @@
         <v>20029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5892,13 @@
         <v>12250</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -5889,13 +5907,13 @@
         <v>30111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -5904,13 +5922,13 @@
         <v>42360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5943,13 @@
         <v>94078</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -5940,13 +5958,13 @@
         <v>101163</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M18" s="7">
         <v>177</v>
@@ -5955,13 +5973,13 @@
         <v>195242</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>59</v>
+        <v>437</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6035,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6029,13 +6047,13 @@
         <v>8656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6044,13 +6062,13 @@
         <v>14297</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6059,13 +6077,13 @@
         <v>22953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6098,13 @@
         <v>18350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -6095,13 +6113,13 @@
         <v>61388</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>442</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -6110,13 +6128,13 @@
         <v>79738</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6149,13 @@
         <v>147612</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -6146,13 +6164,13 @@
         <v>167096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M22" s="7">
         <v>301</v>
@@ -6161,13 +6179,13 @@
         <v>314709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>454</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6253,13 @@
         <v>45882</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H24" s="7">
         <v>39</v>
@@ -6250,13 +6268,13 @@
         <v>50105</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>459</v>
+        <v>293</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>97</v>
+        <v>466</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M24" s="7">
         <v>90</v>
@@ -6265,13 +6283,13 @@
         <v>95987</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6304,13 @@
         <v>67342</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -6301,13 +6319,13 @@
         <v>183381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>474</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M25" s="7">
         <v>221</v>
@@ -6316,13 +6334,13 @@
         <v>250723</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6355,13 @@
         <v>478104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>470</v>
@@ -6352,13 +6370,13 @@
         <v>544444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
       <c r="M26" s="7">
         <v>971</v>
@@ -6367,13 +6385,13 @@
         <v>1022548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,7 +6447,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6450,7 +6468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B508A29-4FAD-4681-94B7-DE35C186E9B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CD4D99-5809-478F-9CCC-6B770D328946}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6467,7 +6485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6574,13 +6592,13 @@
         <v>2118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6589,13 +6607,13 @@
         <v>7402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -6604,13 +6622,13 @@
         <v>9520</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>494</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6643,13 @@
         <v>8685</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -6640,13 +6658,13 @@
         <v>10633</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -6655,13 +6673,13 @@
         <v>19318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6694,13 @@
         <v>18861</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="H6" s="7">
         <v>67</v>
@@ -6691,13 +6709,13 @@
         <v>27387</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="M6" s="7">
         <v>96</v>
@@ -6706,13 +6724,13 @@
         <v>46248</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>143</v>
+        <v>510</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6798,13 @@
         <v>15104</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -6795,13 +6813,13 @@
         <v>21142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="M8" s="7">
         <v>76</v>
@@ -6810,13 +6828,13 @@
         <v>36247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,13 +6849,13 @@
         <v>20725</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>516</v>
+        <v>262</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -6846,13 +6864,13 @@
         <v>33511</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="M9" s="7">
         <v>109</v>
@@ -6861,13 +6879,13 @@
         <v>54236</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,13 +6900,13 @@
         <v>89147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>531</v>
       </c>
       <c r="H10" s="7">
         <v>212</v>
@@ -6897,13 +6915,13 @@
         <v>92566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M10" s="7">
         <v>355</v>
@@ -6912,13 +6930,13 @@
         <v>181713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,7 +6992,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6986,13 +7004,13 @@
         <v>12259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>533</v>
+        <v>206</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -7001,13 +7019,13 @@
         <v>29776</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>536</v>
+        <v>351</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -7016,13 +7034,13 @@
         <v>42035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,13 +7055,13 @@
         <v>23809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -7052,13 +7070,13 @@
         <v>56188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -7067,13 +7085,13 @@
         <v>79997</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7106,13 @@
         <v>137778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -7103,13 +7121,13 @@
         <v>156931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>487</v>
@@ -7118,13 +7136,13 @@
         <v>294708</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>454</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,7 +7198,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7192,13 +7210,13 @@
         <v>6687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -7207,13 +7225,13 @@
         <v>18004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>561</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -7222,13 +7240,13 @@
         <v>24690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,13 +7261,13 @@
         <v>10880</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -7258,13 +7276,13 @@
         <v>37484</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -7273,13 +7291,13 @@
         <v>48364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7312,13 @@
         <v>130623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>573</v>
+        <v>406</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H18" s="7">
         <v>197</v>
@@ -7309,13 +7327,13 @@
         <v>225626</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M18" s="7">
         <v>365</v>
@@ -7324,13 +7342,13 @@
         <v>356251</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,7 +7404,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7398,13 +7416,13 @@
         <v>15334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -7413,13 +7431,13 @@
         <v>33533</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -7428,13 +7446,13 @@
         <v>48867</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>283</v>
+        <v>591</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7467,13 @@
         <v>25624</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="H21" s="7">
         <v>112</v>
@@ -7464,13 +7482,13 @@
         <v>68441</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -7479,13 +7497,13 @@
         <v>94065</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,13 +7518,13 @@
         <v>177838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>603</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
@@ -7515,13 +7533,13 @@
         <v>206968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="M22" s="7">
         <v>622</v>
@@ -7530,13 +7548,13 @@
         <v>384806</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7622,13 @@
         <v>51502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>457</v>
+        <v>612</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="H24" s="7">
         <v>199</v>
@@ -7619,13 +7637,13 @@
         <v>109857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="M24" s="7">
         <v>285</v>
@@ -7634,13 +7652,13 @@
         <v>161359</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>612</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,13 +7673,13 @@
         <v>89723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="H25" s="7">
         <v>383</v>
@@ -7670,13 +7688,13 @@
         <v>206256</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="M25" s="7">
         <v>521</v>
@@ -7685,13 +7703,13 @@
         <v>295979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7724,13 @@
         <v>554248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H26" s="7">
         <v>1124</v>
@@ -7721,13 +7739,13 @@
         <v>709478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="M26" s="7">
         <v>1925</v>
@@ -7736,13 +7754,13 @@
         <v>1263725</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,7 +7816,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E8910A-7712-439D-BAD6-DEE7230E2041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D396AD9D-CDFB-4F3F-901F-1AD5FDDA5A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA88CCDC-AC43-451A-8628-C6F4F97B606E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{53C33914-C996-43BA-8F2C-0C553646FC6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="531">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,1888 +68,1570 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No puede</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
 </sst>
 </file>
@@ -2361,8 +2043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5452B3-DBF4-485B-A241-A224447AB025}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA78D81-F59E-4EE5-9A39-8F75CF21EFF4}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2479,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9368</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2494,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>2953</v>
+        <v>12573</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2509,10 +2191,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>2953</v>
+        <v>21941</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2530,10 +2212,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>5151</v>
+        <v>22616</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2545,10 +2227,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>3558</v>
+        <v>30126</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2560,10 +2242,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>8709</v>
+        <v>52742</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2581,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>21223</v>
+        <v>83005</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2596,10 +2278,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I6" s="7">
-        <v>17813</v>
+        <v>106836</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2611,10 +2293,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="N6" s="7">
-        <v>39037</v>
+        <v>189841</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2632,10 +2314,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="D7" s="7">
-        <v>26374</v>
+        <v>114989</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2647,10 +2329,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I7" s="7">
-        <v>24325</v>
+        <v>149535</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2662,10 +2344,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="N7" s="7">
-        <v>50699</v>
+        <v>264524</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2685,10 +2367,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>9368</v>
+        <v>10822</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2700,10 +2382,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>9620</v>
+        <v>10418</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2715,10 +2397,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>18988</v>
+        <v>21239</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2736,10 +2418,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>17465</v>
+        <v>28753</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2751,10 +2433,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>26568</v>
+        <v>50117</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2766,10 +2448,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="N9" s="7">
-        <v>44033</v>
+        <v>78870</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2787,10 +2469,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>61781</v>
+        <v>106315</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2802,10 +2484,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="I10" s="7">
-        <v>89024</v>
+        <v>122145</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2817,10 +2499,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="N10" s="7">
-        <v>150804</v>
+        <v>228459</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2838,10 +2520,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7">
-        <v>88615</v>
+        <v>145889</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2853,10 +2535,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="I11" s="7">
-        <v>125211</v>
+        <v>182680</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2868,10 +2550,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>328568</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2891,10 +2573,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>10822</v>
+        <v>2918</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2906,10 +2588,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>10418</v>
+        <v>6545</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2921,10 +2603,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>21239</v>
+        <v>9463</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2942,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>28753</v>
+        <v>15007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>50117</v>
+        <v>30830</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>78870</v>
+        <v>45836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2675,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D14" s="7">
-        <v>106315</v>
+        <v>86446</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7">
-        <v>122145</v>
+        <v>98476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="N14" s="7">
-        <v>228459</v>
+        <v>184922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +2726,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7">
-        <v>145889</v>
+        <v>104371</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3059,10 +2741,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I15" s="7">
-        <v>182680</v>
+        <v>135850</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3074,10 +2756,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="N15" s="7">
-        <v>328568</v>
+        <v>240221</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3091,55 +2773,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>2918</v>
+        <v>6697</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>6545</v>
+        <v>19425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>9463</v>
+        <v>26123</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +2830,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>15007</v>
+        <v>17847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>30830</v>
+        <v>46879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="N17" s="7">
-        <v>45836</v>
+        <v>64727</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,43 +2881,43 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="D18" s="7">
-        <v>86446</v>
+        <v>112672</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>98476</v>
+        <v>142473</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="N18" s="7">
-        <v>184922</v>
+        <v>255146</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>122</v>
@@ -3250,10 +2932,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7">
-        <v>104371</v>
+        <v>137217</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3265,10 +2947,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="I19" s="7">
-        <v>135850</v>
+        <v>208777</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3280,10 +2962,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="N19" s="7">
-        <v>240221</v>
+        <v>345995</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3297,55 +2979,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7">
-        <v>6697</v>
+        <v>29806</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>46</v>
+      </c>
+      <c r="I20" s="7">
+        <v>48960</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="7">
-        <v>18</v>
-      </c>
-      <c r="I20" s="7">
-        <v>19425</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>78</v>
+      </c>
+      <c r="N20" s="7">
+        <v>78766</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M20" s="7">
-        <v>26</v>
-      </c>
-      <c r="N20" s="7">
-        <v>26123</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,49 +3036,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D21" s="7">
-        <v>17847</v>
+        <v>84223</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>146</v>
+      </c>
+      <c r="I21" s="7">
+        <v>157952</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="7">
-        <v>43</v>
-      </c>
-      <c r="I21" s="7">
-        <v>46879</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>234</v>
+      </c>
+      <c r="N21" s="7">
+        <v>242175</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="7">
-        <v>63</v>
-      </c>
-      <c r="N21" s="7">
-        <v>64727</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,43 +3087,43 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>128</v>
+        <v>403</v>
       </c>
       <c r="D22" s="7">
-        <v>112672</v>
+        <v>388438</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>469</v>
+      </c>
+      <c r="I22" s="7">
+        <v>469930</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="7">
-        <v>139</v>
-      </c>
-      <c r="I22" s="7">
-        <v>142473</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>872</v>
+      </c>
+      <c r="N22" s="7">
+        <v>858368</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="M22" s="7">
-        <v>267</v>
-      </c>
-      <c r="N22" s="7">
-        <v>255146</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>149</v>
@@ -3456,10 +3138,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>156</v>
+        <v>523</v>
       </c>
       <c r="D23" s="7">
-        <v>137217</v>
+        <v>502466</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3471,10 +3153,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>200</v>
+        <v>661</v>
       </c>
       <c r="I23" s="7">
-        <v>208777</v>
+        <v>676842</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3486,10 +3168,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>356</v>
+        <v>1184</v>
       </c>
       <c r="N23" s="7">
-        <v>345995</v>
+        <v>1179308</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3502,222 +3184,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>32</v>
-      </c>
-      <c r="D24" s="7">
-        <v>29806</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="A24" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="7">
-        <v>46</v>
-      </c>
-      <c r="I24" s="7">
-        <v>48960</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" s="7">
-        <v>78</v>
-      </c>
-      <c r="N24" s="7">
-        <v>78766</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>88</v>
-      </c>
-      <c r="D25" s="7">
-        <v>84223</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="7">
-        <v>146</v>
-      </c>
-      <c r="I25" s="7">
-        <v>157952</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M25" s="7">
-        <v>234</v>
-      </c>
-      <c r="N25" s="7">
-        <v>242175</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>403</v>
-      </c>
-      <c r="D26" s="7">
-        <v>388438</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="7">
-        <v>469</v>
-      </c>
-      <c r="I26" s="7">
-        <v>469930</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M26" s="7">
-        <v>872</v>
-      </c>
-      <c r="N26" s="7">
-        <v>858368</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>523</v>
-      </c>
-      <c r="D27" s="7">
-        <v>502466</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>661</v>
-      </c>
-      <c r="I27" s="7">
-        <v>676842</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1184</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1179308</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>178</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3730,8 +3205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD322581-8E4E-4AD5-A32F-2C56A810BFD9}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C3A59-BA0C-4626-9F60-CF3832421AAC}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3747,7 +3222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3848,49 +3323,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>965</v>
+        <v>6300</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>3476</v>
+        <v>21397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>4441</v>
+        <v>27697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,49 +3374,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>4526</v>
+        <v>24801</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>4211</v>
+        <v>29813</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>8737</v>
+        <v>54614</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,49 +3425,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7">
-        <v>15707</v>
+        <v>108447</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>17507</v>
+        <v>115576</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="N6" s="7">
-        <v>33214</v>
+        <v>224023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,10 +3476,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="D7" s="7">
-        <v>21198</v>
+        <v>139547</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4016,10 +3491,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I7" s="7">
-        <v>25194</v>
+        <v>166787</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4031,10 +3506,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="N7" s="7">
-        <v>46392</v>
+        <v>306334</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4054,49 +3529,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>5335</v>
+        <v>17335</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="7">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7">
+        <v>30767</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H8" s="7">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7">
-        <v>17921</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>23256</v>
+        <v>48102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,49 +3580,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>20275</v>
+        <v>26290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H9" s="7">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>25602</v>
+        <v>48013</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M9" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>45877</v>
+        <v>74304</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,49 +3631,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>92741</v>
+        <v>111253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="I10" s="7">
-        <v>98068</v>
+        <v>112640</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="N10" s="7">
-        <v>190809</v>
+        <v>223893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,10 +3682,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7">
-        <v>118350</v>
+        <v>154878</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4222,10 +3697,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="I11" s="7">
-        <v>141592</v>
+        <v>191420</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4237,10 +3712,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="N11" s="7">
-        <v>259942</v>
+        <v>346298</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4260,49 +3735,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>17335</v>
+        <v>12927</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>30767</v>
+        <v>25697</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N12" s="7">
-        <v>48102</v>
+        <v>38624</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,49 +3786,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>26290</v>
+        <v>15013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>48013</v>
+        <v>21482</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>74304</v>
+        <v>36495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,49 +3837,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7">
-        <v>111253</v>
+        <v>75658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="I14" s="7">
-        <v>112640</v>
+        <v>93840</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="N14" s="7">
-        <v>223893</v>
+        <v>169498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,10 +3888,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>154878</v>
+        <v>103598</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4428,10 +3903,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="I15" s="7">
-        <v>191420</v>
+        <v>141019</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4443,10 +3918,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="N15" s="7">
-        <v>346298</v>
+        <v>244617</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4460,55 +3935,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>12927</v>
+        <v>18369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>25697</v>
+        <v>17746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>38624</v>
+        <v>36114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,49 +3992,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>15013</v>
+        <v>17605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>21482</v>
+        <v>53502</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="N17" s="7">
-        <v>36495</v>
+        <v>71107</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,49 +4043,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D18" s="7">
-        <v>75658</v>
+        <v>125640</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="H18" s="7">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="I18" s="7">
-        <v>93840</v>
+        <v>172503</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M18" s="7">
         <v>279</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M18" s="7">
-        <v>153</v>
-      </c>
       <c r="N18" s="7">
-        <v>169498</v>
+        <v>298142</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D19" s="7">
-        <v>103598</v>
+        <v>161613</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4634,10 +4109,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="I19" s="7">
-        <v>141019</v>
+        <v>243750</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4649,10 +4124,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="N19" s="7">
-        <v>244617</v>
+        <v>405363</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4666,55 +4141,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7">
-        <v>18369</v>
+        <v>54930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I20" s="7">
-        <v>17746</v>
+        <v>95607</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="N20" s="7">
-        <v>36114</v>
+        <v>150537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,49 +4198,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D21" s="7">
-        <v>17605</v>
+        <v>83709</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="H21" s="7">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="I21" s="7">
-        <v>53502</v>
+        <v>152810</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="N21" s="7">
-        <v>71107</v>
+        <v>236520</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,49 +4249,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="D22" s="7">
-        <v>125640</v>
+        <v>420997</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
-        <v>164</v>
+        <v>465</v>
       </c>
       <c r="I22" s="7">
-        <v>172503</v>
+        <v>494558</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
+        <v>847</v>
+      </c>
+      <c r="N22" s="7">
+        <v>915555</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="N22" s="7">
-        <v>298142</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>147</v>
+        <v>504</v>
       </c>
       <c r="D23" s="7">
-        <v>161613</v>
+        <v>559637</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4840,10 +4315,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>231</v>
+        <v>694</v>
       </c>
       <c r="I23" s="7">
-        <v>243750</v>
+        <v>742975</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4855,10 +4330,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>378</v>
+        <v>1198</v>
       </c>
       <c r="N23" s="7">
-        <v>405363</v>
+        <v>1302612</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4871,222 +4346,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>49</v>
-      </c>
-      <c r="D24" s="7">
-        <v>54930</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H24" s="7">
-        <v>86</v>
-      </c>
-      <c r="I24" s="7">
-        <v>95607</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M24" s="7">
-        <v>135</v>
-      </c>
-      <c r="N24" s="7">
-        <v>150537</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>73</v>
-      </c>
-      <c r="D25" s="7">
-        <v>83709</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="7">
-        <v>143</v>
-      </c>
-      <c r="I25" s="7">
-        <v>152810</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M25" s="7">
-        <v>216</v>
-      </c>
-      <c r="N25" s="7">
-        <v>236520</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>382</v>
-      </c>
-      <c r="D26" s="7">
-        <v>420997</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H26" s="7">
-        <v>465</v>
-      </c>
-      <c r="I26" s="7">
-        <v>494558</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M26" s="7">
-        <v>847</v>
-      </c>
-      <c r="N26" s="7">
-        <v>915555</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>504</v>
-      </c>
-      <c r="D27" s="7">
-        <v>559637</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>694</v>
-      </c>
-      <c r="I27" s="7">
-        <v>742975</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1198</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1302612</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>178</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5099,8 +4367,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DF15C5-350A-41AB-A555-C3921D93821F}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B244A-D96E-42F5-A162-D4A404F7718C}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5116,7 +4384,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5217,49 +4485,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>3562</v>
+        <v>16405</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>4360</v>
+        <v>14793</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>7922</v>
+        <v>31198</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4536,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>3514</v>
+        <v>11373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>4875</v>
+        <v>33875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>8390</v>
+        <v>45247</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,49 +4587,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>14612</v>
+        <v>108956</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I6" s="7">
-        <v>14203</v>
+        <v>124723</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="N6" s="7">
-        <v>28815</v>
+        <v>233680</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7">
-        <v>21688</v>
+        <v>136734</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5385,10 +4653,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I7" s="7">
-        <v>23439</v>
+        <v>173391</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5400,10 +4668,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="N7" s="7">
-        <v>45127</v>
+        <v>310125</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5423,49 +4691,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>12843</v>
+        <v>12113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>10432</v>
+        <v>9694</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>23276</v>
+        <v>21807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,49 +4742,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>7858</v>
+        <v>25370</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I9" s="7">
-        <v>28999</v>
+        <v>58008</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="N9" s="7">
-        <v>36857</v>
+        <v>83378</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,49 +4793,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D10" s="7">
-        <v>94344</v>
+        <v>127458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="I10" s="7">
-        <v>110520</v>
+        <v>151461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="N10" s="7">
-        <v>204864</v>
+        <v>278919</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,10 +4844,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>115046</v>
+        <v>164941</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5591,10 +4859,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="I11" s="7">
-        <v>149951</v>
+        <v>219163</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5606,10 +4874,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>384104</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5629,49 +4897,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>12113</v>
+        <v>8707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>9694</v>
+        <v>11322</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>21807</v>
+        <v>20029</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,49 +4948,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>25370</v>
+        <v>12250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>58008</v>
+        <v>30111</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>83378</v>
+        <v>42360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,49 +4999,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7">
-        <v>127458</v>
+        <v>94078</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7">
-        <v>151461</v>
+        <v>101163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="N14" s="7">
-        <v>278919</v>
+        <v>195242</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,10 +5050,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>164941</v>
+        <v>115035</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5797,10 +5065,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="I15" s="7">
-        <v>219163</v>
+        <v>142596</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5812,10 +5080,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="N15" s="7">
-        <v>384104</v>
+        <v>257631</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5829,7 +5097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5838,46 +5106,46 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>8707</v>
+        <v>8656</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>11322</v>
+        <v>14297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>50</v>
       </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>20029</v>
+        <v>22953</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,49 +5154,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>12250</v>
+        <v>18350</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>30111</v>
+        <v>61388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="N17" s="7">
-        <v>42360</v>
+        <v>79738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,49 +5205,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="D18" s="7">
-        <v>94078</v>
+        <v>147612</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="I18" s="7">
-        <v>101163</v>
+        <v>167096</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="N18" s="7">
-        <v>195242</v>
+        <v>314709</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>437</v>
+        <v>149</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,10 +5256,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D19" s="7">
-        <v>115035</v>
+        <v>174618</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6003,10 +5271,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="I19" s="7">
-        <v>142596</v>
+        <v>242781</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6018,10 +5286,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="N19" s="7">
-        <v>257631</v>
+        <v>417400</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6035,55 +5303,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>8656</v>
+        <v>45882</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I20" s="7">
-        <v>14297</v>
+        <v>50105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N20" s="7">
-        <v>22953</v>
+        <v>95987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,49 +5360,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D21" s="7">
-        <v>18350</v>
+        <v>67342</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>449</v>
+        <v>391</v>
       </c>
       <c r="H21" s="7">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>61388</v>
+        <v>183381</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>450</v>
+        <v>392</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>393</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="M21" s="7">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="N21" s="7">
-        <v>79738</v>
+        <v>250723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,49 +5411,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>160</v>
+        <v>501</v>
       </c>
       <c r="D22" s="7">
-        <v>147612</v>
+        <v>478104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
-        <v>141</v>
+        <v>470</v>
       </c>
       <c r="I22" s="7">
-        <v>167096</v>
+        <v>544444</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
-        <v>301</v>
+        <v>971</v>
       </c>
       <c r="N22" s="7">
-        <v>314709</v>
+        <v>1022548</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>176</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,10 +5462,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>190</v>
+        <v>627</v>
       </c>
       <c r="D23" s="7">
-        <v>174618</v>
+        <v>591328</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6209,10 +5477,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>198</v>
+        <v>655</v>
       </c>
       <c r="I23" s="7">
-        <v>242781</v>
+        <v>777931</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6224,10 +5492,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>388</v>
+        <v>1282</v>
       </c>
       <c r="N23" s="7">
-        <v>417400</v>
+        <v>1369259</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6240,222 +5508,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>51</v>
-      </c>
-      <c r="D24" s="7">
-        <v>45882</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H24" s="7">
-        <v>39</v>
-      </c>
-      <c r="I24" s="7">
-        <v>50105</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="M24" s="7">
-        <v>90</v>
-      </c>
-      <c r="N24" s="7">
-        <v>95987</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>75</v>
-      </c>
-      <c r="D25" s="7">
-        <v>67342</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H25" s="7">
-        <v>146</v>
-      </c>
-      <c r="I25" s="7">
-        <v>183381</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="M25" s="7">
-        <v>221</v>
-      </c>
-      <c r="N25" s="7">
-        <v>250723</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>501</v>
-      </c>
-      <c r="D26" s="7">
-        <v>478104</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="H26" s="7">
-        <v>470</v>
-      </c>
-      <c r="I26" s="7">
-        <v>544444</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M26" s="7">
-        <v>971</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1022548</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>627</v>
-      </c>
-      <c r="D27" s="7">
-        <v>591328</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>655</v>
-      </c>
-      <c r="I27" s="7">
-        <v>777931</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1282</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1369259</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>178</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6468,8 +5529,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CD4D99-5809-478F-9CCC-6B770D328946}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53321E37-8784-4032-B77B-77867B9350F6}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6485,7 +5546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>407</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6586,49 +5647,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>2118</v>
+        <v>16608</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>488</v>
+        <v>408</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>7402</v>
+        <v>26850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>421</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N4" s="7">
-        <v>9520</v>
+        <v>43458</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>413</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>414</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,49 +5698,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
-        <v>8685</v>
+        <v>28690</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>416</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I5" s="7">
-        <v>10633</v>
+        <v>40780</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>499</v>
+        <v>418</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>500</v>
+        <v>419</v>
       </c>
       <c r="M5" s="7">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="N5" s="7">
-        <v>19318</v>
+        <v>69470</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>501</v>
+        <v>420</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>503</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,49 +5749,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>18861</v>
+        <v>102785</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>504</v>
+        <v>422</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>505</v>
+        <v>423</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>506</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="I6" s="7">
-        <v>27387</v>
+        <v>111533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>507</v>
+        <v>425</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>508</v>
+        <v>426</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>509</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
-        <v>96</v>
+        <v>451</v>
       </c>
       <c r="N6" s="7">
-        <v>46248</v>
+        <v>214317</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>510</v>
+        <v>428</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>511</v>
+        <v>429</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>512</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,10 +5800,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="D7" s="7">
-        <v>29664</v>
+        <v>148083</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6754,10 +5815,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="I7" s="7">
-        <v>45421</v>
+        <v>179163</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6769,10 +5830,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>159</v>
+        <v>699</v>
       </c>
       <c r="N7" s="7">
-        <v>75085</v>
+        <v>327246</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6792,49 +5853,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>15104</v>
+        <v>11522</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>513</v>
+        <v>431</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>514</v>
+        <v>432</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>515</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I8" s="7">
-        <v>21142</v>
+        <v>27035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>516</v>
+        <v>433</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>517</v>
+        <v>434</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>518</v>
+        <v>435</v>
       </c>
       <c r="M8" s="7">
         <v>76</v>
       </c>
       <c r="N8" s="7">
-        <v>36247</v>
+        <v>38557</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>519</v>
+        <v>436</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>520</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>521</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,49 +5904,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>20725</v>
+        <v>22065</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>522</v>
+        <v>438</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>262</v>
+        <v>439</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>523</v>
+        <v>158</v>
       </c>
       <c r="H9" s="7">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I9" s="7">
-        <v>33511</v>
+        <v>50966</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>524</v>
+        <v>440</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>525</v>
+        <v>441</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>526</v>
+        <v>442</v>
       </c>
       <c r="M9" s="7">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="N9" s="7">
-        <v>54236</v>
+        <v>73031</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>527</v>
+        <v>443</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,49 +5955,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="D10" s="7">
-        <v>89147</v>
+        <v>126527</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>529</v>
+        <v>446</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>530</v>
+        <v>447</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>531</v>
+        <v>448</v>
       </c>
       <c r="H10" s="7">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="I10" s="7">
-        <v>92566</v>
+        <v>140745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>451</v>
       </c>
       <c r="M10" s="7">
-        <v>355</v>
+        <v>487</v>
       </c>
       <c r="N10" s="7">
-        <v>181713</v>
+        <v>267272</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>537</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,10 +6006,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>124977</v>
+        <v>160114</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6960,10 +6021,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>449</v>
       </c>
       <c r="I11" s="7">
-        <v>147219</v>
+        <v>218746</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6975,10 +6036,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>540</v>
+        <v>703</v>
       </c>
       <c r="N11" s="7">
-        <v>272196</v>
+        <v>378860</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6998,49 +6059,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>12259</v>
+        <v>6220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>206</v>
+        <v>456</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>539</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>29776</v>
+        <v>16013</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>540</v>
+        <v>457</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>458</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="M12" s="7">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="N12" s="7">
-        <v>42035</v>
+        <v>22233</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>542</v>
+        <v>460</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>543</v>
+        <v>461</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>544</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,49 +6110,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>23809</v>
+        <v>10322</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>545</v>
+        <v>463</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>546</v>
+        <v>464</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>56188</v>
+        <v>34424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>547</v>
+        <v>466</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>548</v>
+        <v>467</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>549</v>
+        <v>468</v>
       </c>
       <c r="M13" s="7">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="N13" s="7">
-        <v>79997</v>
+        <v>44747</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>551</v>
+        <v>470</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>552</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,49 +6161,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>137778</v>
+        <v>120410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>553</v>
+        <v>472</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>554</v>
+        <v>473</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>555</v>
+        <v>474</v>
       </c>
       <c r="H14" s="7">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="I14" s="7">
-        <v>156931</v>
+        <v>309818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>557</v>
+        <v>476</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>558</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
-        <v>487</v>
+        <v>365</v>
       </c>
       <c r="N14" s="7">
-        <v>294708</v>
+        <v>430229</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>559</v>
+        <v>478</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>560</v>
+        <v>479</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>561</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,10 +6212,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D15" s="7">
-        <v>173846</v>
+        <v>136952</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7166,10 +6227,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>449</v>
+        <v>288</v>
       </c>
       <c r="I15" s="7">
-        <v>242895</v>
+        <v>360256</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7181,10 +6242,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>703</v>
+        <v>481</v>
       </c>
       <c r="N15" s="7">
-        <v>416741</v>
+        <v>497209</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7198,55 +6259,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>6687</v>
+        <v>14497</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>481</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>562</v>
+        <v>482</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>563</v>
+        <v>483</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>18004</v>
+        <v>29126</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>565</v>
+        <v>126</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>485</v>
       </c>
       <c r="M16" s="7">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="N16" s="7">
-        <v>24690</v>
+        <v>43624</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>566</v>
+        <v>486</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>567</v>
+        <v>487</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>568</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,49 +6316,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>10880</v>
+        <v>24424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>569</v>
+        <v>490</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>491</v>
       </c>
       <c r="H17" s="7">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="I17" s="7">
-        <v>37484</v>
+        <v>59727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>571</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>572</v>
+        <v>492</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="M17" s="7">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="N17" s="7">
-        <v>48364</v>
+        <v>84151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>574</v>
+        <v>494</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>576</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,49 +6367,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>130623</v>
+        <v>164788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>577</v>
+        <v>497</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>406</v>
+        <v>498</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>578</v>
+        <v>499</v>
       </c>
       <c r="H18" s="7">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="I18" s="7">
-        <v>225626</v>
+        <v>186204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>579</v>
+        <v>500</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>580</v>
+        <v>501</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>581</v>
+        <v>502</v>
       </c>
       <c r="M18" s="7">
-        <v>365</v>
+        <v>622</v>
       </c>
       <c r="N18" s="7">
-        <v>356251</v>
+        <v>350993</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>582</v>
+        <v>503</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>584</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,10 +6418,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="D19" s="7">
-        <v>148190</v>
+        <v>203709</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7372,10 +6433,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>288</v>
+        <v>523</v>
       </c>
       <c r="I19" s="7">
-        <v>281114</v>
+        <v>275058</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7387,10 +6448,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>481</v>
+        <v>848</v>
       </c>
       <c r="N19" s="7">
-        <v>429305</v>
+        <v>478767</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7404,55 +6465,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D20" s="7">
-        <v>15334</v>
+        <v>48847</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>585</v>
+        <v>507</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>586</v>
+        <v>508</v>
       </c>
       <c r="H20" s="7">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="I20" s="7">
-        <v>33533</v>
+        <v>99025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>587</v>
+        <v>509</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>588</v>
+        <v>510</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>589</v>
+        <v>511</v>
       </c>
       <c r="M20" s="7">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="N20" s="7">
-        <v>48867</v>
+        <v>147872</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>590</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>591</v>
+        <v>512</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>592</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,49 +6522,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>25624</v>
+        <v>85501</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>593</v>
+        <v>514</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>594</v>
+        <v>515</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>595</v>
+        <v>516</v>
       </c>
       <c r="H21" s="7">
-        <v>112</v>
+        <v>383</v>
       </c>
       <c r="I21" s="7">
-        <v>68441</v>
+        <v>185898</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>596</v>
+        <v>517</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>597</v>
+        <v>518</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>598</v>
+        <v>519</v>
       </c>
       <c r="M21" s="7">
-        <v>150</v>
+        <v>521</v>
       </c>
       <c r="N21" s="7">
-        <v>94065</v>
+        <v>271399</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>599</v>
+        <v>520</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>600</v>
+        <v>521</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>601</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,49 +6573,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>263</v>
+        <v>801</v>
       </c>
       <c r="D22" s="7">
-        <v>177838</v>
+        <v>514510</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>602</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>603</v>
+        <v>523</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>604</v>
+        <v>524</v>
       </c>
       <c r="H22" s="7">
-        <v>359</v>
+        <v>1124</v>
       </c>
       <c r="I22" s="7">
-        <v>206968</v>
+        <v>748301</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>606</v>
+        <v>526</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>607</v>
+        <v>527</v>
       </c>
       <c r="M22" s="7">
-        <v>622</v>
+        <v>1925</v>
       </c>
       <c r="N22" s="7">
-        <v>384806</v>
+        <v>1262810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>608</v>
+        <v>528</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>609</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>610</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,10 +6624,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>325</v>
+        <v>1025</v>
       </c>
       <c r="D23" s="7">
-        <v>218796</v>
+        <v>648858</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7578,10 +6639,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>523</v>
+        <v>1706</v>
       </c>
       <c r="I23" s="7">
-        <v>308942</v>
+        <v>1033224</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7593,10 +6654,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>848</v>
+        <v>2731</v>
       </c>
       <c r="N23" s="7">
-        <v>527738</v>
+        <v>1682081</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7609,222 +6670,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>86</v>
-      </c>
-      <c r="D24" s="7">
-        <v>51502</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="H24" s="7">
-        <v>199</v>
-      </c>
-      <c r="I24" s="7">
-        <v>109857</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="M24" s="7">
-        <v>285</v>
-      </c>
-      <c r="N24" s="7">
-        <v>161359</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>138</v>
-      </c>
-      <c r="D25" s="7">
-        <v>89723</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="H25" s="7">
-        <v>383</v>
-      </c>
-      <c r="I25" s="7">
-        <v>206256</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="M25" s="7">
-        <v>521</v>
-      </c>
-      <c r="N25" s="7">
-        <v>295979</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>801</v>
-      </c>
-      <c r="D26" s="7">
-        <v>554248</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1124</v>
-      </c>
-      <c r="I26" s="7">
-        <v>709478</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1925</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1263725</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1025</v>
-      </c>
-      <c r="D27" s="7">
-        <v>695473</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1706</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1025591</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2731</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1721064</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>178</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
